--- a/ita_install_package/ITA/ita-contents/ita-root/libs/messages/en_US_UTF-8_dumpTemplate.xlsx
+++ b/ita_install_package/ITA/ita-contents/ita-root/libs/messages/en_US_UTF-8_dumpTemplate.xlsx
@@ -213,8 +213,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,7 +288,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,6 +553,39 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -586,44 +619,11 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -665,6 +665,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD9D9D9"/>
       <color rgb="FFE65000"/>
     </mruColors>
   </colors>
@@ -968,113 +969,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="25" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="25" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="18" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="18" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="13.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="13.5" customHeight="1">
       <c r="A2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="28"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="28"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="29"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13.5" customHeight="1">
       <c r="A6" s="30" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="31"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="85.5" customHeight="1">
       <c r="A7" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="33"/>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="F14" s="26"/>
+    <row r="14" spans="1:6">
+      <c r="F14" s="13"/>
     </row>
   </sheetData>
   <protectedRanges>
